--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBEF50A4-BABF-1141-BABE-5CB2FC949805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F35BA0-0216-8645-8755-29F14F0180DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="740" windowWidth="13660" windowHeight="17260" activeTab="1" xr2:uid="{DBF0F2D7-224F-4F43-AC71-F2C48BF6EDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Main</t>
   </si>
@@ -142,6 +142,42 @@
   </si>
   <si>
     <t>Q223</t>
+  </si>
+  <si>
+    <t>FY2025</t>
+  </si>
+  <si>
+    <t>FY2024</t>
+  </si>
+  <si>
+    <t>FY2022</t>
+  </si>
+  <si>
+    <t>FY2023</t>
+  </si>
+  <si>
+    <t>FY2026</t>
+  </si>
+  <si>
+    <t>FY2027</t>
+  </si>
+  <si>
+    <t>FY2028</t>
+  </si>
+  <si>
+    <t>FY2029</t>
+  </si>
+  <si>
+    <t>FY2030</t>
+  </si>
+  <si>
+    <t>FY2031</t>
+  </si>
+  <si>
+    <t>FY2032</t>
+  </si>
+  <si>
+    <t>FY2033</t>
   </si>
 </sst>
 </file>
@@ -696,10 +732,10 @@
   <dimension ref="A1:EM22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -713,6 +749,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:143">
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="4" spans="1:143">
       <c r="C4" t="s">
         <v>33</v>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F35BA0-0216-8645-8755-29F14F0180DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31499CFC-7AC1-CD42-A3FA-D6D51AB12378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="740" windowWidth="13660" windowHeight="17260" activeTab="1" xr2:uid="{DBF0F2D7-224F-4F43-AC71-F2C48BF6EDF2}"/>
+    <workbookView xWindow="640" yWindow="740" windowWidth="13660" windowHeight="17260" xr2:uid="{DBF0F2D7-224F-4F43-AC71-F2C48BF6EDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F32251-463A-6244-AA60-5FF02613DB68}">
   <dimension ref="K2:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -731,11 +731,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3162E4A2-9F6A-FC45-8126-BDDA495ABCCF}">
   <dimension ref="A1:EM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
